--- a/Monthly/ACF - PACF/First Difference/fast_retailing residuals - values.xlsx
+++ b/Monthly/ACF - PACF/First Difference/fast_retailing residuals - values.xlsx
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.02246159629174217</v>
+        <v>-0.02181129490852654</v>
       </c>
       <c r="C3">
-        <v>-0.02267349814355107</v>
+        <v>-0.0220170618416259</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.003375966615683642</v>
+        <v>0.0288425872043141</v>
       </c>
       <c r="C4">
-        <v>-0.003956392191604569</v>
+        <v>0.02892123840518085</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.02927857070755657</v>
+        <v>0.0631107040358195</v>
       </c>
       <c r="C5">
-        <v>-0.03030721641404774</v>
+        <v>0.0662839216895984</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.01601799380751332</v>
+        <v>0.08550536104779094</v>
       </c>
       <c r="C6">
-        <v>0.01526969253479128</v>
+        <v>0.09142827375466912</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.03032693005498995</v>
+        <v>0.007010101658555124</v>
       </c>
       <c r="C7">
-        <v>0.03234631184520136</v>
+        <v>0.008290028415643561</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.03313102304613712</v>
+        <v>-0.005146321863957399</v>
       </c>
       <c r="C8">
-        <v>-0.03451379860964461</v>
+        <v>-0.01477607082359138</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-0.02284591093863427</v>
+        <v>0.03459746610074532</v>
       </c>
       <c r="C9">
-        <v>-0.02489321904693778</v>
+        <v>0.02431475542833651</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.03608244854158467</v>
+        <v>-0.01349241552403199</v>
       </c>
       <c r="C10">
-        <v>-0.0388271395171363</v>
+        <v>-0.02169266935166783</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.1189118339252981</v>
+        <v>-0.1265252509702193</v>
       </c>
       <c r="C11">
-        <v>-0.1357174347036663</v>
+        <v>-0.1431770709567818</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-0.1356210641914343</v>
+        <v>-0.09342939152731915</v>
       </c>
       <c r="C12">
-        <v>-0.1621071133132313</v>
+        <v>-0.1171294657472866</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.1042363469540578</v>
+        <v>-0.05767297932566828</v>
       </c>
       <c r="C13">
-        <v>-0.1360312170172511</v>
+        <v>-0.07122777294352639</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-0.02998018911848546</v>
+        <v>-0.04239346721076161</v>
       </c>
       <c r="C14">
-        <v>-0.06330687571401504</v>
+        <v>-0.02877138018682491</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.106497035555459</v>
+        <v>0.07396874315004716</v>
       </c>
       <c r="C15">
-        <v>0.1103882178804896</v>
+        <v>0.1314245727693925</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-0.1545887008752422</v>
+        <v>-0.1176231583038015</v>
       </c>
       <c r="C16">
-        <v>-0.1784241974767293</v>
+        <v>-0.09633798233830744</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-0.003693976329280496</v>
+        <v>0.02921607387617402</v>
       </c>
       <c r="C17">
-        <v>-0.02386798818383722</v>
+        <v>0.04404869379714487</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-0.0008157989507838974</v>
+        <v>-0.01312432665651868</v>
       </c>
       <c r="C18">
-        <v>-0.01592993124909538</v>
+        <v>-0.00189472325286365</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1430848441925229</v>
+        <v>0.1141950032933591</v>
       </c>
       <c r="C19">
-        <v>0.1392458533476703</v>
+        <v>0.1464769797312544</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.05053586047824544</v>
+        <v>0.06653058820845366</v>
       </c>
       <c r="C20">
-        <v>0.03462837051071079</v>
+        <v>0.09618422504005453</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.02736026428587499</v>
+        <v>-0.01807316676215267</v>
       </c>
       <c r="C21">
-        <v>-0.06817505898023159</v>
+        <v>-0.05895030191664653</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.07105808919195578</v>
+        <v>0.06272655343429741</v>
       </c>
       <c r="C22">
-        <v>0.03253439614984437</v>
+        <v>0.01110715465900569</v>
       </c>
     </row>
   </sheetData>
